--- a/data/additional/single_annotated/full_nonfict/txt/metadata.xlsx
+++ b/data/additional/single_annotated/full_nonfict/txt/metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_Redewiedergabe\corpus\data\additional\single_annotated\full_nonfict\xmi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\single_annotated\full_nonfict\xmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB67191-BE9B-4303-8771-4FFEAC502DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-27555" yWindow="495" windowWidth="27450" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
   <si>
     <t>file</t>
   </si>
   <si>
+    <t>timestamp</t>
+  </si>
+  <si>
     <t>annotator</t>
   </si>
   <si>
@@ -51,9 +55,6 @@
     <t>text_type</t>
   </si>
   <si>
-    <t>periodical</t>
-  </si>
-  <si>
     <t>narrative</t>
   </si>
   <si>
@@ -72,6 +73,12 @@
     <t>rwz_full_grenz_10479.xmi</t>
   </si>
   <si>
+    <t>rwz_full_grenz_13.xmi</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_18399.xmi</t>
+  </si>
+  <si>
     <t>rwz_full_grenz_20389.xmi</t>
   </si>
   <si>
@@ -84,6 +91,9 @@
     <t>rwz_full_grenz_6595.xmi</t>
   </si>
   <si>
+    <t>rwz_full_grenz_7300.xmi</t>
+  </si>
+  <si>
     <t>rwz_full_mkhz_10107.xmi</t>
   </si>
   <si>
@@ -108,6 +118,9 @@
     <t>mercury</t>
   </si>
   <si>
+    <t>uranus</t>
+  </si>
+  <si>
     <t>neptune</t>
   </si>
   <si>
@@ -117,6 +130,12 @@
     <t>grenzboten_341831_157679.txt_10.xml</t>
   </si>
   <si>
+    <t>grenzboten_282160_266616.txt_20.xml</t>
+  </si>
+  <si>
+    <t>grenzboten_341875_238787.txt_44.xml</t>
+  </si>
+  <si>
     <t>grenzboten_341885_303415.txt_6.xml</t>
   </si>
   <si>
@@ -129,6 +148,9 @@
     <t>grenzboten_341805_191229.txt_24.xml</t>
   </si>
   <si>
+    <t>grenzboten_341809_121220.txt_26.xml</t>
+  </si>
+  <si>
     <t>MT_1887_01_10.txt_1.xml</t>
   </si>
   <si>
@@ -153,6 +175,12 @@
     <t>1880</t>
   </si>
   <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>1907</t>
   </si>
   <si>
@@ -165,6 +193,9 @@
     <t>1867</t>
   </si>
   <si>
+    <t>1869</t>
+  </si>
+  <si>
     <t>1887</t>
   </si>
   <si>
@@ -186,6 +217,9 @@
     <t>1847</t>
   </si>
   <si>
+    <t>1840</t>
+  </si>
+  <si>
     <t>1900</t>
   </si>
   <si>
@@ -201,9 +235,6 @@
     <t>1890</t>
   </si>
   <si>
-    <t>1840</t>
-  </si>
-  <si>
     <t>1870</t>
   </si>
   <si>
@@ -228,6 +259,12 @@
     <t>Die Tragik in Werken der hellenischen Plastik</t>
   </si>
   <si>
+    <t>Der Musikunterricht in Elementarschulen in Deutschland und Frankreich.</t>
+  </si>
+  <si>
+    <t>Musikalische Zeitfragen</t>
+  </si>
+  <si>
     <t>Goethe und die Boisserée</t>
   </si>
   <si>
@@ -240,6 +277,9 @@
     <t>Die Petrussagen</t>
   </si>
   <si>
+    <t>Polnischer Monatsbericht.</t>
+  </si>
+  <si>
     <t>Die Versammlung der deutschen Vertrauensmänner in Brünn</t>
   </si>
   <si>
@@ -258,6 +298,9 @@
     <t>Veit, Valentin</t>
   </si>
   <si>
+    <t>Kretzschmar, Hermann</t>
+  </si>
+  <si>
     <t>Born, Conrad Professor Dr.</t>
   </si>
   <si>
@@ -265,6 +308,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>undefined</t>
   </si>
   <si>
     <t>NA</t>
@@ -273,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,6 +470,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -459,6 +522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,19 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -702,564 +777,705 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M2">
         <v>6609</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M3">
-        <v>4483</v>
+        <v>9240</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M4">
-        <v>5091</v>
+        <v>7195</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M5">
-        <v>8039</v>
+        <v>4483</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
         <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>5833</v>
+        <v>5091</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>7131</v>
+        <v>8039</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>6257</v>
+        <v>5833</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>3175</v>
+        <v>7071</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>3356</v>
+        <v>7131</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>3368</v>
+        <v>6257</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>5118</v>
+        <v>3175</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
       </c>
       <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13">
+        <v>3356</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14">
+        <v>3368</v>
+      </c>
+      <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
         <v>77</v>
       </c>
-      <c r="H13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13">
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15">
+        <v>5118</v>
+      </c>
+      <c r="N15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16">
         <v>4514</v>
       </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" t="s">
-        <v>82</v>
+      <c r="N16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
